--- a/tests/testdata/standard/px-files/db/db.xlsx
+++ b/tests/testdata/standard/px-files/db/db.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="table_user" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="table_project" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="table_insert_test" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t xml:space="preserve">User Master Table</t>
   </si>
@@ -168,6 +169,30 @@
   </si>
   <si>
     <t xml:space="preserve">Project Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Insert Test Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert_test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
   </si>
 </sst>
 </file>
@@ -177,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Hiragino Mincho ProN"/>
@@ -198,55 +223,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Hiragino Mincho ProN"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -276,36 +252,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,44 +267,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF666699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -363,7 +288,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,61 +312,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,65 +326,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -519,7 +380,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -535,7 +396,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -564,18 +425,18 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
@@ -885,17 +746,17 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.32"/>
   </cols>
@@ -1135,6 +996,250 @@
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
